--- a/USA-kaart.xlsx
+++ b/USA-kaart.xlsx
@@ -386,7 +386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -424,234 +426,225 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
       </c>
       <c r="E5">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>2</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
         <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
       <c r="E8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
       <c r="G9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
+      <c r="H10">
         <v>4</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>14</v>
-      </c>
       <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>17</v>
-      </c>
-      <c r="J11">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -663,61 +656,67 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
         <v>16</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>17</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
       <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
         <v>18</v>
-      </c>
-      <c r="G14">
-        <v>19</v>
-      </c>
-      <c r="H14">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -726,70 +725,70 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
         <v>19</v>
       </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>15</v>
-      </c>
       <c r="H15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="H16">
         <v>10</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
         <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>21</v>
-      </c>
-      <c r="H17">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -798,125 +797,125 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
         <v>21</v>
       </c>
-      <c r="F18">
-        <v>22</v>
+      <c r="H18">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>23</v>
-      </c>
-      <c r="G19">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>13</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>23</v>
       </c>
       <c r="G20">
-        <v>24</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G21">
         <v>24</v>
       </c>
       <c r="H21">
-        <v>25</v>
-      </c>
-      <c r="I21">
-        <v>26</v>
-      </c>
-      <c r="J21">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>26</v>
+      </c>
+      <c r="J22">
         <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>26</v>
-      </c>
-      <c r="G22">
-        <v>27</v>
-      </c>
-      <c r="H22">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -925,271 +924,274 @@
         <v>17</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>26</v>
+      </c>
+      <c r="G23">
         <v>27</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>37</v>
-      </c>
-      <c r="F24">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="F25">
         <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>19</v>
-      </c>
-      <c r="E25">
-        <v>23</v>
-      </c>
-      <c r="F25">
-        <v>37</v>
-      </c>
-      <c r="G25">
-        <v>36</v>
-      </c>
-      <c r="H25">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>20</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E26">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>37</v>
+      </c>
+      <c r="G26">
         <v>36</v>
       </c>
-      <c r="F26">
-        <v>35</v>
-      </c>
-      <c r="G26">
-        <v>34</v>
-      </c>
       <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>34</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="I27">
         <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>25</v>
-      </c>
-      <c r="F27">
-        <v>33</v>
-      </c>
-      <c r="G27">
-        <v>32</v>
-      </c>
-      <c r="H27">
-        <v>30</v>
-      </c>
-      <c r="I27">
-        <v>28</v>
-      </c>
-      <c r="J27">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>28</v>
+      </c>
+      <c r="J28">
         <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>22</v>
-      </c>
-      <c r="D28">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>26</v>
-      </c>
-      <c r="F28">
-        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
         <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>30</v>
-      </c>
-      <c r="F29">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
         <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>28</v>
-      </c>
-      <c r="D30">
-        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
         <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>29</v>
-      </c>
-      <c r="D31">
-        <v>28</v>
-      </c>
-      <c r="E31">
-        <v>26</v>
-      </c>
-      <c r="F31">
-        <v>32</v>
-      </c>
-      <c r="G31">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>32</v>
+      </c>
+      <c r="G32">
         <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="D32">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
         <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33">
-        <v>36</v>
-      </c>
-      <c r="F33">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>36</v>
+      </c>
+      <c r="F34">
         <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>26</v>
-      </c>
-      <c r="E34">
-        <v>24</v>
-      </c>
-      <c r="F34">
-        <v>34</v>
-      </c>
-      <c r="G34">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>24</v>
+      </c>
+      <c r="F35">
         <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>33</v>
-      </c>
-      <c r="D35">
-        <v>25</v>
-      </c>
-      <c r="E35">
-        <v>35</v>
-      </c>
-      <c r="F35">
-        <v>38</v>
       </c>
       <c r="G35">
         <v>39</v>
@@ -1197,273 +1199,273 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
         <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>36</v>
-      </c>
-      <c r="E36">
-        <v>37</v>
       </c>
       <c r="F36">
         <v>38</v>
       </c>
       <c r="G36">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>27</v>
-      </c>
       <c r="E37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F37">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="G37">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>36</v>
+      </c>
+      <c r="F39">
         <v>35</v>
-      </c>
-      <c r="D39">
-        <v>34</v>
-      </c>
-      <c r="E39">
-        <v>39</v>
-      </c>
-      <c r="F39">
-        <v>40</v>
-      </c>
-      <c r="G39">
-        <v>41</v>
-      </c>
-      <c r="H39">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>34</v>
       </c>
       <c r="E40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40">
         <v>40</v>
       </c>
+      <c r="G40">
+        <v>41</v>
+      </c>
+      <c r="H40">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <v>38</v>
+      </c>
+      <c r="F41">
         <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>39</v>
-      </c>
-      <c r="D41">
-        <v>38</v>
-      </c>
-      <c r="E41">
-        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42">
         <v>38</v>
       </c>
       <c r="E42">
-        <v>48</v>
-      </c>
-      <c r="F42">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+      <c r="F43">
         <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>41</v>
-      </c>
-      <c r="D43">
-        <v>48</v>
-      </c>
-      <c r="E43">
-        <v>44</v>
-      </c>
-      <c r="F43">
-        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>44</v>
+      </c>
+      <c r="F44">
         <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>42</v>
-      </c>
-      <c r="D44">
-        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45">
         <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>43</v>
-      </c>
-      <c r="D45">
-        <v>42</v>
-      </c>
-      <c r="E45">
-        <v>48</v>
-      </c>
-      <c r="F45">
-        <v>47</v>
-      </c>
-      <c r="G45">
-        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>42</v>
+      </c>
+      <c r="E46">
+        <v>48</v>
+      </c>
+      <c r="F46">
+        <v>47</v>
+      </c>
+      <c r="G46">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
         <v>46</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>45</v>
-      </c>
-      <c r="D47">
-        <v>44</v>
-      </c>
-      <c r="E47">
-        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <v>44</v>
       </c>
       <c r="E48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>44</v>
+      </c>
+      <c r="E49">
         <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>38</v>
-      </c>
-      <c r="D49">
-        <v>41</v>
-      </c>
-      <c r="E49">
-        <v>42</v>
-      </c>
-      <c r="F49">
-        <v>44</v>
-      </c>
-      <c r="G49">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
